--- a/GPS/docs/BOM/ProMicro_GPS.xlsx
+++ b/GPS/docs/BOM/ProMicro_GPS.xlsx
@@ -82,7 +82,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>C2 C4 C7 C8 C9 C10 C11</t>
+    <t>C1 C2 C3 C4 C5 C7 C9</t>
   </si>
   <si>
     <t>100n</t>
@@ -91,16 +91,16 @@
     <t>7</t>
   </si>
   <si>
-    <t>C1525 C15195</t>
-  </si>
-  <si>
-    <t>CL05B104KO5NNNC CL05B103KB5NNNC</t>
+    <t>C15195 C1525</t>
+  </si>
+  <si>
+    <t>CL05B103KB5NNNC CL05B104KO5NNNC</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C8</t>
   </si>
   <si>
     <t>4,7µ</t>
@@ -151,7 +151,7 @@
     <t>MountingHole</t>
   </si>
   <si>
-    <t>H1 H2</t>
+    <t>H2</t>
   </si>
   <si>
     <t>MountingHole_2.1mm</t>
@@ -214,33 +214,33 @@
     <t>R</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>C17168</t>
+  </si>
+  <si>
+    <t>0402WGF0000TCE</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>R3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>C17168</t>
-  </si>
-  <si>
-    <t>0402WGF0000TCE</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -274,48 +274,48 @@
     <t>AP2112K-1.8</t>
   </si>
   <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP2112.pdf</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>InvenSense 9-Axis Motion Sensor, Accelerometer, Gyroscope, Compass, I2C/SPI</t>
+  </si>
+  <si>
+    <t>MPU-9250</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>InvenSense_QFN-24_3x3mm_P0.4mm</t>
+  </si>
+  <si>
+    <t>https://store.invensense.com/datasheets/invensense/MPU9250REV1.0.pdf</t>
+  </si>
+  <si>
+    <t>C71459</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>GNSS Module MAX M8, VCC 1.65V to 3.6V</t>
+  </si>
+  <si>
+    <t>MAX-8C</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AP2112.pdf</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>InvenSense 9-Axis Motion Sensor, Accelerometer, Gyroscope, Compass, I2C/SPI</t>
-  </si>
-  <si>
-    <t>MPU-9250</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>InvenSense_QFN-24_3x3mm_P0.4mm</t>
-  </si>
-  <si>
-    <t>https://store.invensense.com/datasheets/invensense/MPU9250REV1.0.pdf</t>
-  </si>
-  <si>
-    <t>C71459</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>GNSS Module MAX M8, VCC 1.65V to 3.6V</t>
-  </si>
-  <si>
-    <t>MAX-8C</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>SIM28ML</t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Sun Sep  6 08:18:24 2020</t>
+    <t>Sun Sep  6 18:12:22 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
@@ -717,7 +717,7 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="131.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -922,7 +922,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
@@ -1300,7 +1300,7 @@
         <v>105</v>
       </c>
       <c r="B23" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>106</v>
       </c>
       <c r="B24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>108</v>
       </c>
       <c r="B26" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2">
